--- a/res/page/车场运营/增值服务/中央值守/CendutySeatPage.xlsx
+++ b/res/page/车场运营/增值服务/中央值守/CendutySeatPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="577"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>别名</t>
   </si>
@@ -42,6 +42,18 @@
     <t>//ul[@role='menubar']//span[contains(text(),'中央值守')]</t>
   </si>
   <si>
+    <t>帐号管理</t>
+  </si>
+  <si>
+    <t>//ul/li[text()='帐号管理']</t>
+  </si>
+  <si>
+    <t>语音账号</t>
+  </si>
+  <si>
+    <t>//ul/li[text()='语音账号']</t>
+  </si>
+  <si>
     <t>新增</t>
   </si>
   <si>
@@ -93,7 +105,13 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//div[@class='modal-wrapper user-row-modal' and not(@style='display: none;')]//button[contains(text(),'确认')]</t>
+    <t>//div[contains(@class,"modal-wrapper") and not(@style='display: none;')]//button[contains(text(),'确认')]</t>
+  </si>
+  <si>
+    <t>确认-二级提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//div[@class='modal-wrapper select-park-modal']//button[contains(text(),'确认')][1]</t>
   </si>
   <si>
     <t>绑定权限-确认</t>
@@ -148,6 +166,36 @@
   </si>
   <si>
     <t>//div[@class='el-table__fixed-right']//button[@title='启用']</t>
+  </si>
+  <si>
+    <t>语音帐号-编辑</t>
+  </si>
+  <si>
+    <t>//div[@class='el-table__fixed-right']//div[@class='cell']/span[text()='自动化测试停车场']/../../..//button[@title='编辑']</t>
+  </si>
+  <si>
+    <t>语音帐号-删除</t>
+  </si>
+  <si>
+    <t>//div[@class='el-table__fixed-right']//div[@class='cell']/span[text()='自动化测试停车场']/../../..//button[@title='删除']</t>
+  </si>
+  <si>
+    <t>选择停车场按钮</t>
+  </si>
+  <si>
+    <t>//span[text()='选择停车场']</t>
+  </si>
+  <si>
+    <t>语音账号-密码</t>
+  </si>
+  <si>
+    <t>//label[text()='密码']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>语音账号-选择停车场</t>
+  </si>
+  <si>
+    <t>//ul[@id='ParkTree']</t>
   </si>
 </sst>
 </file>
@@ -155,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -177,6 +225,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -184,77 +239,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,12 +263,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -282,18 +306,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,16 +330,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +588,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +627,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,35 +689,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1202,24 +1250,24 @@
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1323,10 +1371,10 @@
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1344,7 +1392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="32" customHeight="1" spans="1:3">
+    <row r="17" ht="33" customHeight="1" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1355,7 +1403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" ht="32" customHeight="1" spans="1:3">
+    <row r="18" ht="33" customHeight="1" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1366,7 +1414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" ht="32" customHeight="1" spans="1:3">
+    <row r="19" ht="33" customHeight="1" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1397,6 +1445,94 @@
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="32" customHeight="1" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" ht="32" customHeight="1" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" ht="32" customHeight="1" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" ht="32" customHeight="1" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="32" customHeight="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/增值服务/中央值守/CendutySeatPage.xlsx
+++ b/res/page/车场运营/增值服务/中央值守/CendutySeatPage.xlsx
@@ -36,10 +36,10 @@
     <t>//nav[@class='menu-box']//a[contains(text(), "车场运营")]</t>
   </si>
   <si>
-    <t>中央值守</t>
-  </si>
-  <si>
-    <t>//ul[@role='menubar']//span[contains(text(),'中央值守')]</t>
+    <t>远程值班</t>
+  </si>
+  <si>
+    <t>//ul[@role='menubar']//span[contains(text(),'远程值班')]/..</t>
   </si>
   <si>
     <t>帐号管理</t>
@@ -203,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,21 +225,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +309,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -261,106 +324,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -383,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +592,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -602,16 +617,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,31 +667,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/中央值守/CendutySeatPage.xlsx
+++ b/res/page/车场运营/增值服务/中央值守/CendutySeatPage.xlsx
@@ -72,22 +72,22 @@
     <t>//div[@class='modal-wrapper user-row-modal' and not(@style='display: none;')]//label[text()='登录密码']/following-sibling::*[1]//input</t>
   </si>
   <si>
-    <t>坐席人员姓名</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-wrapper user-row-modal' and not(@style='display: none;')]//label[text()='坐席人员姓名']/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-wrapper user-row-modal' and not(@style='display: none;')]//label[text()='联系电话']/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>绑定停车场</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-wrapper user-row-modal' and not(@style='display: none;')]//label[text()='绑定停车场']/following-sibling::*[1]//span</t>
+    <t>坐席姓名</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-wrapper user-row-modal' and not(@style='display: none;')]//label[text()='坐席姓名']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-wrapper user-row-modal' and not(@style='display: none;')]//label[text()='手机号码']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>值班车场</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-wrapper user-row-modal' and not(@style='display: none;')]//label[text()='值班车场']/following-sibling::*[1]//span</t>
   </si>
   <si>
     <t>选择停车场</t>
@@ -105,7 +105,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//div[contains(@class,"modal-wrapper") and not(@style='display: none;')]//button[contains(text(),'确认')]</t>
+    <t>//div[contains(@class,"modal-wrapper") and not(@style='display: none;')]//span[contains(text(),'确认')]</t>
   </si>
   <si>
     <t>确认-二级提示</t>
@@ -346,23 +346,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +383,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,31 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,132 +564,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,145 +697,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1480,7 +1480,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" ht="32" customHeight="1" spans="1:3">
+    <row r="25" ht="33" customHeight="1" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" ht="32" customHeight="1" spans="1:3">
+    <row r="26" ht="33" customHeight="1" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" ht="24" customHeight="1" spans="1:3">
+    <row r="27" ht="33" customHeight="1" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" ht="33" customHeight="1" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="33" customHeight="1" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>

--- a/res/page/车场运营/增值服务/中央值守/CendutySeatPage.xlsx
+++ b/res/page/车场运营/增值服务/中央值守/CendutySeatPage.xlsx
@@ -105,7 +105,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//div[contains(@class,"modal-wrapper") and not(@style='display: none;')]//span[contains(text(),'确认')]</t>
+    <t>//div[contains(@class,"modal-wrapper") and not(@style='display: none;')]//span[contains(text(),'确认')or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>确认-二级提示</t>
@@ -117,13 +117,13 @@
     <t>绑定权限-确认</t>
   </si>
   <si>
-    <t>//h3[text()='绑定权限']/../..//button[text()='确认']</t>
+    <t>//h3[text()='绑定权限']/../..//button[text()='确认' or text()='确 认']</t>
   </si>
   <si>
     <t>温馨提示-确认</t>
   </si>
   <si>
-    <t>//h3[text()='温馨提示']/../..//button[text()='确认']</t>
+    <t>//h3[text()='温馨提示']/../..//button[text()='确认' or text()='确 认']</t>
   </si>
   <si>
     <t>搜索框</t>
@@ -346,23 +346,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +383,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,12 +413,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,31 +467,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,24 +533,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -497,6 +545,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -509,61 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/中央值守/CendutySeatPage.xlsx
+++ b/res/page/车场运营/增值服务/中央值守/CendutySeatPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="577"/>
+    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="577"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,13 +117,13 @@
     <t>绑定权限-确认</t>
   </si>
   <si>
-    <t>//h3[text()='绑定权限']/../..//button[text()='确认']</t>
+    <t>//h3[text()='绑定权限']/../..//button[text()='确认' or text()='确 认']</t>
   </si>
   <si>
     <t>温馨提示-确认</t>
   </si>
   <si>
-    <t>//h3[text()='温馨提示']/../..//button[text()='确认']</t>
+    <t>//h3[text()='温馨提示']/../..//button[text()='确 认' or text()='确认']</t>
   </si>
   <si>
     <t>搜索框</t>
@@ -233,7 +233,90 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,8 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,39 +346,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,66 +367,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -389,37 +389,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,43 +503,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,37 +533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,49 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,30 +588,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +633,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -684,6 +675,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -697,145 +697,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
